--- a/quan.java/config/excel/装备1.xlsx
+++ b/quan.java/config/excel/装备1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\quan.java\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE1CE4D-1D2A-49E7-9845-9EC74EC6DCEF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A06429F-9792-48EE-8502-A99E71F65D42}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -78,6 +78,10 @@
   </si>
   <si>
     <t>22;23;456</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>常量Key</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1030,59 +1034,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="20.625" customWidth="1"/>
+    <col min="10" max="10" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
@@ -1110,39 +1114,42 @@
       <c r="K2" t="s">
         <v>9</v>
       </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2</v>
       </c>
     </row>
